--- a/result/NCDC_weather_data/stations_imputed/45032099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/45032099999.xlsx
@@ -561,9 +561,15 @@
         <v>2.27</v>
       </c>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1.983314596153847</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3.559599741758241</v>
+      </c>
+      <c r="N2" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O2" t="n">
         <v>152.78</v>
       </c>
@@ -617,7 +623,9 @@
       <c r="M3" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O3" t="n">
         <v>165.74</v>
       </c>
@@ -671,7 +679,9 @@
       <c r="M4" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O4" t="n">
         <v>162.86</v>
       </c>
@@ -725,7 +735,9 @@
       <c r="M5" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O5" t="n">
         <v>170.96</v>
       </c>
@@ -779,7 +791,9 @@
       <c r="M6" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O6" t="n">
         <v>174.56</v>
       </c>
@@ -833,7 +847,9 @@
       <c r="M7" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O7" t="n">
         <v>168.62</v>
       </c>
@@ -887,7 +903,9 @@
       <c r="M8" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O8" t="n">
         <v>158.9</v>
       </c>
@@ -941,7 +959,9 @@
       <c r="M9" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O9" t="n">
         <v>159.62</v>
       </c>
@@ -995,7 +1015,9 @@
       <c r="M10" t="n">
         <v>2.495034</v>
       </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="N10" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O10" t="n">
         <v>158</v>
       </c>
@@ -1049,7 +1071,9 @@
       <c r="M11" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="N11" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O11" t="n">
         <v>156.92</v>
       </c>
@@ -1103,7 +1127,9 @@
       <c r="M12" t="n">
         <v>6.996384</v>
       </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="N12" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O12" t="n">
         <v>143.96</v>
       </c>
@@ -1157,7 +1183,9 @@
       <c r="M13" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="N13" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O13" t="n">
         <v>143.78</v>
       </c>
@@ -1211,7 +1239,9 @@
       <c r="M14" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="N14" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O14" t="n">
         <v>147.56</v>
       </c>
@@ -1265,7 +1295,9 @@
       <c r="M15" t="n">
         <v>4.012632</v>
       </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="N15" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O15" t="n">
         <v>144.68</v>
       </c>
@@ -1319,7 +1351,9 @@
       <c r="M16" t="n">
         <v>4.012632</v>
       </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="N16" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O16" t="n">
         <v>160.52</v>
       </c>
@@ -1373,7 +1407,9 @@
       <c r="M17" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="N17" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O17" t="n">
         <v>164.84</v>
       </c>
@@ -1427,7 +1463,9 @@
       <c r="M18" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="N18" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O18" t="n">
         <v>152.42</v>
       </c>
@@ -1481,7 +1519,9 @@
       <c r="M19" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="N19" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O19" t="n">
         <v>145.4</v>
       </c>
@@ -1535,7 +1575,9 @@
       <c r="M20" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="N20" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O20" t="n">
         <v>156.38</v>
       </c>
@@ -1589,7 +1631,9 @@
       <c r="M21" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="N21" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O21" t="n">
         <v>161.24</v>
       </c>
@@ -1643,7 +1687,9 @@
       <c r="M22" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="N22" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O22" t="n">
         <v>159.98</v>
       </c>
@@ -1697,7 +1743,9 @@
       <c r="M23" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="N23" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O23" t="n">
         <v>150.26</v>
       </c>
@@ -1751,7 +1799,9 @@
       <c r="M24" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="N24" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O24" t="n">
         <v>163.22</v>
       </c>
@@ -1805,7 +1855,9 @@
       <c r="M25" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="N25" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O25" t="n">
         <v>161.78</v>
       </c>
@@ -1859,7 +1911,9 @@
       <c r="M26" t="n">
         <v>0.977436</v>
       </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="N26" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O26" t="n">
         <v>152.42</v>
       </c>
@@ -1913,7 +1967,9 @@
       <c r="M27" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="N27" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O27" t="n">
         <v>162.86</v>
       </c>
@@ -1967,7 +2023,9 @@
       <c r="M28" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="N28" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O28" t="n">
         <v>166.64</v>
       </c>
@@ -2021,7 +2079,9 @@
       <c r="M29" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="N29" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O29" t="n">
         <v>153.5</v>
       </c>
@@ -2075,7 +2135,9 @@
       <c r="M30" t="n">
         <v>4.012632</v>
       </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="N30" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O30" t="n">
         <v>158.36</v>
       </c>
@@ -2129,7 +2191,9 @@
       <c r="M31" t="n">
         <v>6.018948</v>
       </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="N31" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O31" t="n">
         <v>147.02</v>
       </c>
@@ -2183,7 +2247,9 @@
       <c r="M32" t="n">
         <v>4.012632</v>
       </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="N32" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O32" t="n">
         <v>131.72</v>
       </c>
@@ -2237,7 +2303,9 @@
       <c r="M33" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="N33" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O33" t="n">
         <v>128.84</v>
       </c>
@@ -2291,7 +2359,9 @@
       <c r="M34" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="N34" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O34" t="n">
         <v>133.7</v>
       </c>
@@ -2345,7 +2415,9 @@
       <c r="M35" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="N35" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O35" t="n">
         <v>128.84</v>
       </c>
@@ -2399,7 +2471,9 @@
       <c r="M36" t="n">
         <v>4.990068</v>
       </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="N36" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O36" t="n">
         <v>144.32</v>
       </c>
@@ -2453,7 +2527,9 @@
       <c r="M37" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="N37" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O37" t="n">
         <v>144.68</v>
       </c>
@@ -2507,7 +2583,9 @@
       <c r="M38" t="n">
         <v>4.012632</v>
       </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="N38" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O38" t="n">
         <v>147.92</v>
       </c>
@@ -2561,7 +2639,9 @@
       <c r="M39" t="n">
         <v>4.990068</v>
       </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="N39" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O39" t="n">
         <v>143.96</v>
       </c>
@@ -2615,7 +2695,9 @@
       <c r="M40" t="n">
         <v>4.012632</v>
       </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="N40" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O40" t="n">
         <v>143.78</v>
       </c>
@@ -2669,7 +2751,9 @@
       <c r="M41" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="N41" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O41" t="n">
         <v>146.3</v>
       </c>
@@ -2723,7 +2807,9 @@
       <c r="M42" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="N42" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O42" t="n">
         <v>148.64</v>
       </c>
@@ -2777,7 +2863,9 @@
       <c r="M43" t="n">
         <v>4.990068</v>
       </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="N43" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O43" t="n">
         <v>166.64</v>
       </c>
@@ -2831,7 +2919,9 @@
       <c r="M44" t="n">
         <v>4.012632</v>
       </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="N44" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O44" t="n">
         <v>166.64</v>
       </c>
@@ -2885,7 +2975,9 @@
       <c r="M45" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="N45" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O45" t="n">
         <v>144.32</v>
       </c>
@@ -2939,7 +3031,9 @@
       <c r="M46" t="n">
         <v>4.012632</v>
       </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="N46" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O46" t="n">
         <v>161.78</v>
       </c>
@@ -2993,7 +3087,9 @@
       <c r="M47" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="N47" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O47" t="n">
         <v>160.52</v>
       </c>
@@ -3047,7 +3143,9 @@
       <c r="M48" t="n">
         <v>4.990068</v>
       </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="N48" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O48" t="n">
         <v>149.9</v>
       </c>
@@ -3101,7 +3199,9 @@
       <c r="M49" t="n">
         <v>4.012632</v>
       </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="N49" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O49" t="n">
         <v>142.16</v>
       </c>
@@ -3155,7 +3255,9 @@
       <c r="M50" t="n">
         <v>6.018948</v>
       </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="N50" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O50" t="n">
         <v>147.02</v>
       </c>
@@ -3209,7 +3311,9 @@
       <c r="M51" t="n">
         <v>6.996384</v>
       </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="N51" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O51" t="n">
         <v>124.52</v>
       </c>
@@ -3263,7 +3367,9 @@
       <c r="M52" t="n">
         <v>6.018948</v>
       </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="N52" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O52" t="n">
         <v>112.28</v>
       </c>
@@ -3317,7 +3423,9 @@
       <c r="M53" t="n">
         <v>4.012632</v>
       </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="N53" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O53" t="n">
         <v>118.76</v>
       </c>
@@ -3371,7 +3479,9 @@
       <c r="M54" t="n">
         <v>4.012632</v>
       </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="N54" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O54" t="n">
         <v>121.1</v>
       </c>
@@ -3425,7 +3535,9 @@
       <c r="M55" t="n">
         <v>4.990068</v>
       </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="N55" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O55" t="n">
         <v>137.84</v>
       </c>
@@ -3479,7 +3591,9 @@
       <c r="M56" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="N56" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O56" t="n">
         <v>140.54</v>
       </c>
@@ -3533,7 +3647,9 @@
       <c r="M57" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="N57" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O57" t="n">
         <v>154.4</v>
       </c>
@@ -3587,7 +3703,9 @@
       <c r="M58" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="N58" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O58" t="n">
         <v>165.74</v>
       </c>
@@ -3641,7 +3759,9 @@
       <c r="M59" t="n">
         <v>4.990068</v>
       </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="N59" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O59" t="n">
         <v>165.38</v>
       </c>
@@ -3695,7 +3815,9 @@
       <c r="M60" t="n">
         <v>4.012632</v>
       </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="N60" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O60" t="n">
         <v>167.72</v>
       </c>
@@ -3749,7 +3871,9 @@
       <c r="M61" t="n">
         <v>4.50135</v>
       </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="N61" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O61" t="n">
         <v>183.56</v>
       </c>
@@ -3803,7 +3927,9 @@
       <c r="M62" t="n">
         <v>4.990068</v>
       </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="N62" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O62" t="n">
         <v>178.34</v>
       </c>
@@ -3857,7 +3983,9 @@
       <c r="M63" t="n">
         <v>4.990068</v>
       </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="N63" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O63" t="n">
         <v>167.36</v>
       </c>
@@ -3911,7 +4039,9 @@
       <c r="M64" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="N64" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O64" t="n">
         <v>177.08</v>
       </c>
@@ -3965,7 +4095,9 @@
       <c r="M65" t="n">
         <v>6.018948</v>
       </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="N65" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O65" t="n">
         <v>183.92</v>
       </c>
@@ -4019,7 +4151,9 @@
       <c r="M66" t="n">
         <v>6.018948</v>
       </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="N66" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O66" t="n">
         <v>160.88</v>
       </c>
@@ -4073,7 +4207,9 @@
       <c r="M67" t="n">
         <v>4.990068</v>
       </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="N67" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O67" t="n">
         <v>168.08</v>
       </c>
@@ -4127,7 +4263,9 @@
       <c r="M68" t="n">
         <v>4.012632</v>
       </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="N68" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O68" t="n">
         <v>160.16</v>
       </c>
@@ -4181,7 +4319,9 @@
       <c r="M69" t="n">
         <v>4.012632</v>
       </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="N69" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O69" t="n">
         <v>170.6</v>
       </c>
@@ -4235,7 +4375,9 @@
       <c r="M70" t="n">
         <v>4.012632</v>
       </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="N70" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O70" t="n">
         <v>174.74</v>
       </c>
@@ -4289,7 +4431,9 @@
       <c r="M71" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="N71" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O71" t="n">
         <v>177.44</v>
       </c>
@@ -4343,7 +4487,9 @@
       <c r="M72" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="N72" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O72" t="n">
         <v>177.08</v>
       </c>
@@ -4397,7 +4543,9 @@
       <c r="M73" t="n">
         <v>4.012632</v>
       </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="N73" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O73" t="n">
         <v>181.94</v>
       </c>
@@ -4451,7 +4599,9 @@
       <c r="M74" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="N74" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O74" t="n">
         <v>188.06</v>
       </c>
@@ -4505,7 +4655,9 @@
       <c r="M75" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="N75" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O75" t="n">
         <v>192.56</v>
       </c>
@@ -4559,7 +4711,9 @@
       <c r="M76" t="n">
         <v>4.012632</v>
       </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="N76" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O76" t="n">
         <v>172.94</v>
       </c>
@@ -4613,7 +4767,9 @@
       <c r="M77" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="N77" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O77" t="n">
         <v>182.66</v>
       </c>
@@ -4667,7 +4823,9 @@
       <c r="M78" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="N78" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O78" t="n">
         <v>186.08</v>
       </c>
@@ -4721,7 +4879,9 @@
       <c r="M79" t="n">
         <v>4.012632</v>
       </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="N79" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O79" t="n">
         <v>177.8</v>
       </c>
@@ -4775,7 +4935,9 @@
       <c r="M80" t="n">
         <v>4.990068</v>
       </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="N80" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O80" t="n">
         <v>158.54</v>
       </c>
@@ -4829,7 +4991,9 @@
       <c r="M81" t="n">
         <v>4.990068</v>
       </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="N81" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O81" t="n">
         <v>172.58</v>
       </c>
@@ -4883,7 +5047,9 @@
       <c r="M82" t="n">
         <v>4.012632</v>
       </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="N82" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O82" t="n">
         <v>176.36</v>
       </c>
@@ -4937,7 +5103,9 @@
       <c r="M83" t="n">
         <v>4.990068</v>
       </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="N83" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O83" t="n">
         <v>137.84</v>
       </c>
@@ -4991,7 +5159,9 @@
       <c r="M84" t="n">
         <v>6.996384</v>
       </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="N84" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O84" t="n">
         <v>151.88</v>
       </c>
@@ -5045,7 +5215,9 @@
       <c r="M85" t="n">
         <v>4.012632</v>
       </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="N85" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O85" t="n">
         <v>176.36</v>
       </c>
@@ -5099,7 +5271,9 @@
       <c r="M86" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="N86" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O86" t="n">
         <v>181.94</v>
       </c>
@@ -5153,7 +5327,9 @@
       <c r="M87" t="n">
         <v>4.990068</v>
       </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="N87" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O87" t="n">
         <v>163.4</v>
       </c>
@@ -5207,7 +5383,9 @@
       <c r="M88" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="N88" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O88" t="n">
         <v>142.34</v>
       </c>
@@ -5261,7 +5439,9 @@
       <c r="M89" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="N89" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O89" t="n">
         <v>155.66</v>
       </c>
@@ -5315,7 +5495,9 @@
       <c r="M90" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="N90" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O90" t="n">
         <v>180.32</v>
       </c>
@@ -5369,7 +5551,9 @@
       <c r="M91" t="n">
         <v>4.012632</v>
       </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="N91" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O91" t="n">
         <v>186.08</v>
       </c>
@@ -5423,7 +5607,9 @@
       <c r="M92" t="n">
         <v>6.018948</v>
       </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="N92" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O92" t="n">
         <v>161.6</v>
       </c>
@@ -5477,7 +5663,9 @@
       <c r="M93" t="n">
         <v>4.990068</v>
       </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="N93" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O93" t="n">
         <v>136.58</v>
       </c>
@@ -5531,7 +5719,9 @@
       <c r="M94" t="n">
         <v>4.012632</v>
       </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="N94" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O94" t="n">
         <v>169.34</v>
       </c>
@@ -5585,7 +5775,9 @@
       <c r="M95" t="n">
         <v>4.012632</v>
       </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="N95" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O95" t="n">
         <v>173.48</v>
       </c>
@@ -5639,7 +5831,9 @@
       <c r="M96" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="N96" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O96" t="n">
         <v>178.7</v>
       </c>
@@ -5693,7 +5887,9 @@
       <c r="M97" t="n">
         <v>4.012632</v>
       </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="N97" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O97" t="n">
         <v>177.44</v>
       </c>
@@ -5747,7 +5943,9 @@
       <c r="M98" t="n">
         <v>4.012632</v>
       </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="N98" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O98" t="n">
         <v>180.68</v>
       </c>
@@ -5801,7 +5999,9 @@
       <c r="M99" t="n">
         <v>3.909744</v>
       </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="N99" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O99" t="n">
         <v>186.8</v>
       </c>
@@ -5855,7 +6055,9 @@
       <c r="M100" t="n">
         <v>3.395304</v>
       </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="N100" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O100" t="n">
         <v>185.9</v>
       </c>
@@ -5909,7 +6111,9 @@
       <c r="M101" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="N101" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O101" t="n">
         <v>185.18</v>
       </c>
@@ -5963,7 +6167,9 @@
       <c r="M102" t="n">
         <v>2.777976</v>
       </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="N102" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O102" t="n">
         <v>185.9</v>
       </c>
@@ -6017,7 +6223,9 @@
       <c r="M103" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="N103" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O103" t="n">
         <v>184.28</v>
       </c>
@@ -6071,7 +6279,9 @@
       <c r="M104" t="n">
         <v>1.903428</v>
       </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="N104" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O104" t="n">
         <v>182.3</v>
       </c>
@@ -6125,7 +6335,9 @@
       <c r="M105" t="n">
         <v>3.806856</v>
       </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="N105" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O105" t="n">
         <v>188.42</v>
       </c>
@@ -6179,7 +6391,9 @@
       <c r="M106" t="n">
         <v>5.607396</v>
       </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="N106" t="n">
+        <v>10.53340632692308</v>
+      </c>
       <c r="O106" t="n">
         <v>178.7</v>
       </c>
